--- a/data_year/zb/财政/预算外资金分项目收入.xlsx
+++ b/data_year/zb/财政/预算外资金分项目收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,284 +473,24 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3826.43</v>
+        <v>5794.42</v>
       </c>
       <c r="C2" t="n">
-        <v>403.34</v>
+        <v>257.18</v>
       </c>
       <c r="D2" t="n">
-        <v>325.81</v>
+        <v>1787.28</v>
       </c>
       <c r="E2" t="n">
-        <v>59.22</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3578.79</v>
-      </c>
-      <c r="G2" t="n">
-        <v>383.51</v>
-      </c>
+        <v>58.14</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>2654.54</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4300</v>
-      </c>
-      <c r="C3" t="n">
-        <v>410</v>
-      </c>
-      <c r="D3" t="n">
-        <v>360</v>
-      </c>
-      <c r="E3" t="n">
-        <v>60</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3953</v>
-      </c>
-      <c r="G3" t="n">
-        <v>380</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4479</v>
-      </c>
-      <c r="C4" t="n">
-        <v>272</v>
-      </c>
-      <c r="D4" t="n">
-        <v>521</v>
-      </c>
-      <c r="E4" t="n">
-        <v>72</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4039</v>
-      </c>
-      <c r="G4" t="n">
-        <v>376</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3238</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4566.8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>293.14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>598.49</v>
-      </c>
-      <c r="E5" t="n">
-        <v>52.33</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3335.74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4699.18</v>
-      </c>
-      <c r="C6" t="n">
-        <v>213.09</v>
-      </c>
-      <c r="D6" t="n">
-        <v>862.26</v>
-      </c>
-      <c r="E6" t="n">
-        <v>64.12</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>351.29</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3208.42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5544.16</v>
-      </c>
-      <c r="C7" t="n">
-        <v>192.94</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1086.24</v>
-      </c>
-      <c r="E7" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>359.29</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3858.19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6407.88</v>
-      </c>
-      <c r="C8" t="n">
-        <v>221.29</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1548.39</v>
-      </c>
-      <c r="E8" t="n">
-        <v>44.91</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>376.49</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4216.8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6820.3205</v>
-      </c>
-      <c r="C9" t="n">
-        <v>180.2512</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1918.8604</v>
-      </c>
-      <c r="E9" t="n">
-        <v>40.1558</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>4681.0531</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6617.25</v>
-      </c>
-      <c r="C10" t="n">
-        <v>220.74</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1513.6226</v>
-      </c>
-      <c r="E10" t="n">
-        <v>47.08</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>4835.8074</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6414.65</v>
-      </c>
-      <c r="C11" t="n">
-        <v>220.56</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1511.85</v>
-      </c>
-      <c r="E11" t="n">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>4598.14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5794.42</v>
-      </c>
-      <c r="C12" t="n">
-        <v>257.18</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1787.28</v>
-      </c>
-      <c r="E12" t="n">
-        <v>58.14</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
         <v>3691.82</v>
       </c>
     </row>
